--- a/data/Tucapel.xlsx
+++ b/data/Tucapel.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación Extracción y procesamiento de áridos sector Huepil</t>
+          <t>Regularización Fase de Operación Embalse Las Astas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SOCIEDAD ÁRIDOS Y ASFALTOS SERVITERRA LIMITADA</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/06/2021</t>
+          <t>18/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152192283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155911251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,40 +472,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Eólico Peñasco Ventoso</t>
+          <t>Ampliación Extracción y procesamiento de áridos sector Huepil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Quilleco SpA</t>
+          <t>SOCIEDAD ÁRIDOS Y ASFALTOS SERVITERRA LIMITADA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>325000</v>
+        <v>100</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>27/04/2021</t>
+          <t>22/06/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152192283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>25/03/2021</t>
+          <t>27/04/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151272544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PROYECTO REGULARIZACIÓN EMBALSE LAS ASTAS</t>
+          <t>Parque Eólico Peñasco Ventoso</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Quilleco SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>135</v>
+        <v>325000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/08/2020</t>
+          <t>25/03/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147592996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151272544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Trupán</t>
+          <t>PROYECTO REGULARIZACIÓN EMBALSE LAS ASTAS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7000</v>
+        <v>135</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>21/08/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146341507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147592996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN EMBALSE LAS ASTAS</t>
+          <t>Parque Fotovoltaico Trupán</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>135</v>
+        <v>7000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/03/2020</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145874673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146341507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>REGULARIZACIÓN EMBALSE LAS ASTAS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9903</v>
+        <v>135</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>20/03/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145874673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PISCICULTURA POLCURA</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>9903</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21/02/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138508288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mejoramiento del desempeño ambiental del plantel de cerdos Monte Verde, a través de la recuperación de nutrientes para el riego, y el manejo de animales muertos</t>
+          <t>PISCICULTURA POLCURA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,11 +823,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>169</v>
+        <v>1000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138519139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138508288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Piscicultura Polcura</t>
+          <t>Mejoramiento del desempeño ambiental del plantel de cerdos Monte Verde, a través de la recuperación de nutrientes para el riego, y el manejo de animales muertos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1000</v>
+        <v>169</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>28/12/2017</t>
+          <t>21/02/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138519139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN SISTEMA DE TRATAMIENTO DE PURINES, PLANTEL DE CERDOS MONTE VERDE BAJO AGRÍCOLA Y FORESTAL LAS ASTAS S.A., PLANTA HUEPIL</t>
+          <t>Piscicultura Polcura</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>145</v>
+        <v>1000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/07/2017</t>
+          <t>28/12/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132498006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modificacion en el tratamiento de la mortalidad mediante un sistema de ensilaje para piscicultura Campamento Viejo, El Peumo y Kudiñam</t>
+          <t>OPTIMIZACIÓN SISTEMA DE TRATAMIENTO DE PURINES, PLANTEL DE CERDOS MONTE VERDE BAJO AGRÍCOLA Y FORESTAL LAS ASTAS S.A., PLANTA HUEPIL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SUR INVERSIONES S.A.</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/04/2017</t>
+          <t>20/07/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132328019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132498006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19/12/2016</t>
+          <t>21/04/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131912907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132328019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13/10/2016</t>
+          <t>19/12/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131859474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131912907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>02/09/2016</t>
+          <t>13/10/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131733752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131859474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Piscicultura Santa Teresa</t>
+          <t>Modificacion en el tratamiento de la mortalidad mediante un sistema de ensilaje para piscicultura Campamento Viejo, El Peumo y Kudiñam</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sociedad de Acuicultura Piscicultura Santa Teresa Limitada</t>
+          <t>SUR INVERSIONES S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/06/2015</t>
+          <t>02/09/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131733752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>06/05/2015</t>
+          <t>23/06/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130423407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Aumento de extracción y procesamiento de áridos de pozo lastrero, Cruz de Piedra</t>
+          <t>Piscicultura Santa Teresa</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA RIVERA LIMITADA</t>
+          <t>Sociedad de Acuicultura Piscicultura Santa Teresa Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1300</v>
+        <v>350</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11/02/2014</t>
+          <t>06/05/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129198984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130423407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>José Aurelio Rivera Arriagada</t>
+          <t>CONSTRUCTORA RIVERA LIMITADA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>11/02/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129198984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Extracción y Procesamiento de Áridos en Pozo Lastrero, sector Huepil .</t>
+          <t>Aumento de extracción y procesamiento de áridos de pozo lastrero, Cruz de Piedra</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sociedad Áridos y Asfaltos Servitierra Ltda.</t>
+          <t>José Aurelio Rivera Arriagada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>1300</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>02/07/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8295344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Modificación DIA Establecimiento Plantel de Cerdos Monte Verde Bajo</t>
+          <t>Ampliación Planta de Extracción y Procesamiento de Áridos en Pozo Lastrero, sector Huepil .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Sociedad Áridos y Asfaltos Servitierra Ltda.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>28/06/2013</t>
+          <t>02/07/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8277746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8295344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación Extracción Mecanizada de Áridos en Predio Santa Catalina - Sector Cruz de Piedra</t>
+          <t>Modificación DIA Establecimiento Plantel de Cerdos Monte Verde Bajo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sociedad Aridos Cruz de Piedra Limitada</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>17/12/2012</t>
+          <t>28/06/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7644779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8277746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,30 +1480,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pequeña Central Hidroeléctrica de Pasada El Pinar</t>
+          <t>Ampliación Extracción Mecanizada de Áridos en Predio Santa Catalina - Sector Cruz de Piedra</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica El Pinar SpA</t>
+          <t>Sociedad Aridos Cruz de Piedra Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>23400</v>
+        <v>2000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>17/10/2012</t>
+          <t>17/12/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7430147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7644779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Aaktei Energía SpA</t>
+          <t>Empresa Eléctrica El Pinar SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>21/09/2012</t>
+          <t>17/10/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7354919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7430147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,40 +1576,40 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 1x154 kV Molino - Tap Off Huépil</t>
+          <t>Pequeña Central Hidroeléctrica de Pasada El Pinar</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cholguán Transmisión S.A</t>
+          <t>Aaktei Energía SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6870</v>
+        <v>23400</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>02/04/2012</t>
+          <t>21/09/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6753532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7354919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Línea de Transmisión 1x154 kV Molino - Tap Off Huépil</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Cholguán Transmisión S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>6870</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>02/04/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6753532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos Pozo Cruz de Piedra Para la Materialización de la Ruta Concesionada, Autopista Concepción - Cabrero Pozo Cruz de Piedra</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>11/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Regularización Incineración de la Mortalidad en Piscicultura de Valle del Laja</t>
+          <t>Extracción y Procesamiento de Áridos Pozo Cruz de Piedra Para la Materialización de la Ruta Concesionada, Autopista Concepción - Cabrero Pozo Cruz de Piedra</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Salmones Frioaysén S.A.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19/07/2011</t>
+          <t>11/10/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827707&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Regularización Incineración de la Mortalidad en Piscicultura de Polcura IncineraPolcura</t>
+          <t>Regularización Incineración de la Mortalidad en Piscicultura de Valle del Laja</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Manuel Jesús Jara Figueroa</t>
+          <t>Salmones Frioaysén S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08/07/2011</t>
+          <t>19/07/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5792941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827707&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,30 +1816,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pequeña Central Hidroeléctrica de Pasada Baquedano</t>
+          <t>Regularización Incineración de la Mortalidad en Piscicultura de Polcura IncineraPolcura</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Energía Baquedano Spa</t>
+          <t>Manuel Jesús Jara Figueroa</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>56300</v>
+        <v>28</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09/05/2011</t>
+          <t>08/07/2011</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5588117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5792941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Molinos de Agua Proyecto Hidroeléctrico Molinos de Agua</t>
+          <t>Pequeña Central Hidroeléctrica de Pasada Baquedano</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Molinos de Agua S.A.</t>
+          <t>Energía Baquedano Spa</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>50000</v>
+        <v>56300</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>25/03/2011</t>
+          <t>09/05/2011</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Renuncia RCA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5469296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5588117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,40 +1912,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Hidroeléctrico Molinos de Agua Proyecto Hidroeléctrico Molinos de Agua</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica Molinos de Agua S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>22</v>
+        <v>50000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>25/03/2011</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5469296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mejoramiento de Planta de Tratamiento de Aguas Servidas de Huepil (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>476</v>
+        <v>22</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>15/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3700824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura Valle del Laja (e-seia)</t>
+          <t>Mejoramiento de Planta de Tratamiento de Aguas Servidas de Huepil (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Salmones Frioaysén S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>600</v>
+        <v>476</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>24/06/2008</t>
+          <t>15/04/2009</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2979851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3700824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Ampliación Piscicultura Valle del Laja (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Salmones Frioaysén S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>234</v>
+        <v>600</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>24/06/2008</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2979851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura Polcura Am.Pisc-Polcura (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Manuel Jesús Jara Figueroa</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>800</v>
+        <v>234</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>03/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Piscicultura Polcura Am.Pisc-Polcura (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Manuel Jesús Jara Figueroa</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/09/2007</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Establecimiento Plantel de Cerdos Monte Verde Bajo (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Raúl Pérez Serani</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>30/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Raúl Pérez Serani</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2276,12 +2276,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2279232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Establecimiento Plantel de Cerdos Monte Verde Bajo (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>30/07/2007</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2279232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica de Pasada Trupan CentralTrupan (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Asociación de Canalistas Canal Zañartu</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>42000</v>
+        <v>300</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>27/04/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2126804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Central Hidroeléctrica de Pasada Trupan CentralTrupan (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Asociación de Canalistas Canal Zañartu</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>80</v>
+        <v>42000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>27/04/2007</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2126804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Piscicultura Cruz de Piedra (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,12 +2738,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Francisco Alfredo de la Cruz Yañez</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=254000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Piscicultura Rastrojo Alto (e-seia)</t>
+          <t>Piscicultura Cruz de Piedra (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Fernando Enrique Delgado Palomino</t>
+          <t>Francisco Alfredo de la Cruz Yañez</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15/01/2004</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=245813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=254000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Piscicultura Altos del Laja (e-seia)</t>
+          <t>Piscicultura Rastrojo Alto (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Francisco Alfredo de la Cruz Yañez</t>
+          <t>Fernando Enrique Delgado Palomino</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>15/01/2004</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=101997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=245813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>29/04/2003</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=73913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=101997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>09/01/2003</t>
+          <t>29/04/2003</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=42768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=73913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Centro Piscicultor de Ovas Alevines y Smolts de Salmónidos en la Localidad de Trupán VIII Región</t>
+          <t>Piscicultura Altos del Laja (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Evaluaciones Económicas de Proyectos de Inversión Ltda.</t>
+          <t>Francisco Alfredo de la Cruz Yañez</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>07/09/2001</t>
+          <t>09/01/2003</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=42768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cultivo de Salmónidos Sector El Peumo Localidad de Trupan Comuna de Tucapel</t>
+          <t>Centro Piscicultor de Ovas Alevines y Smolts de Salmónidos en la Localidad de Trupán VIII Región</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SUR INVERSIONES S.A.</t>
+          <t>Evaluaciones Económicas de Proyectos de Inversión Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09/07/2001</t>
+          <t>07/09/2001</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Piscicultura Polcura</t>
+          <t>Cultivo de Salmónidos Sector El Peumo Localidad de Trupan Comuna de Tucapel</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Manuel Jesús Jara Figueroa</t>
+          <t>SUR INVERSIONES S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>24/11/2000</t>
+          <t>09/07/2001</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Petrans Localidad de Huepil Comuna de Tucapel</t>
+          <t>Piscicultura Polcura</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Richard Rodemil Rubilar Fernández</t>
+          <t>Manuel Jesús Jara Figueroa</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>13/11/2000</t>
+          <t>24/11/2000</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Instalación de un Centro de Cultivos de Salmónidos en su Fase de Agua Dulce en la Localidad de Tucapel VIII Región</t>
+          <t>Estación de Servicio YPF Petrans Localidad de Huepil Comuna de Tucapel</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Acuicultora Salmocordillera Ltda.</t>
+          <t>Richard Rodemil Rubilar Fernández</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>02/11/2000</t>
+          <t>13/11/2000</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Restaurant y Discoteca Murzy</t>
+          <t>Instalación de un Centro de Cultivos de Salmónidos en su Fase de Agua Dulce en la Localidad de Tucapel VIII Región</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Reinaldo Ruiz Martin</t>
+          <t>Acuicultora Salmocordillera Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>28/09/1999</t>
+          <t>02/11/2000</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,43 +3256,91 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>Restaurant y Discoteca Murzy</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Reinaldo Ruiz Martin</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>10</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>28/09/1999</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2338&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Tucapel</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>Planta de Tratamiento de Aguas Servidas de Huépil</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Octava</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
-      <c r="F61" t="n">
+      <c r="F62" t="n">
         <v>1160</v>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>09/04/1999</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886293&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>Tucapel</t>
         </is>

--- a/data/Tucapel.xlsx
+++ b/data/Tucapel.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Tucapel.xlsx
+++ b/data/Tucapel.xlsx
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA RIVERA LIMITADA</t>
+          <t>Sociedad Áridos Santa Adela Ltda.</t>
         </is>
       </c>
       <c r="F20" t="n">

--- a/data/Tucapel.xlsx
+++ b/data/Tucapel.xlsx
@@ -1652,7 +1652,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">

--- a/data/Tucapel.xlsx
+++ b/data/Tucapel.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Regularización Fase de Operación Embalse Las Astas</t>
+          <t>Ampliación Extracción y Procesamiento de áridos Sector Huépil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>SOCIEDAD ÁRIDOS Y ASFALTOS SERVITERRA LIMITADA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>28/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155911251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157509249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación Extracción y procesamiento de áridos sector Huepil</t>
+          <t>Regularización Fase de Operación Embalse Las Astas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SOCIEDAD ÁRIDOS Y ASFALTOS SERVITERRA LIMITADA</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/06/2021</t>
+          <t>18/05/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152192283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155911251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,40 +520,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Eólico Peñasco Ventoso</t>
+          <t>Ampliación Extracción y procesamiento de áridos sector Huepil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Quilleco SpA</t>
+          <t>SOCIEDAD ÁRIDOS Y ASFALTOS SERVITERRA LIMITADA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>325000</v>
+        <v>100</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>27/04/2021</t>
+          <t>22/06/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152192283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>25/03/2021</t>
+          <t>27/04/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151272544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PROYECTO REGULARIZACIÓN EMBALSE LAS ASTAS</t>
+          <t>Parque Eólico Peñasco Ventoso</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Quilleco SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>135</v>
+        <v>325000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/08/2020</t>
+          <t>25/03/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147592996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151272544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Trupán</t>
+          <t>PROYECTO REGULARIZACIÓN EMBALSE LAS ASTAS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7000</v>
+        <v>135</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>21/08/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146341507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147592996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN EMBALSE LAS ASTAS</t>
+          <t>Parque Fotovoltaico Trupán</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>135</v>
+        <v>7000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/03/2020</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145874673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146341507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>REGULARIZACIÓN EMBALSE LAS ASTAS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9903</v>
+        <v>135</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>20/03/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145874673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PISCICULTURA POLCURA</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1000</v>
+        <v>9903</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>21/02/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138508288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mejoramiento del desempeño ambiental del plantel de cerdos Monte Verde, a través de la recuperación de nutrientes para el riego, y el manejo de animales muertos</t>
+          <t>PISCICULTURA POLCURA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,11 +871,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>169</v>
+        <v>1000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138519139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138508288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Piscicultura Polcura</t>
+          <t>Mejoramiento del desempeño ambiental del plantel de cerdos Monte Verde, a través de la recuperación de nutrientes para el riego, y el manejo de animales muertos</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1000</v>
+        <v>169</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>28/12/2017</t>
+          <t>21/02/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138519139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN SISTEMA DE TRATAMIENTO DE PURINES, PLANTEL DE CERDOS MONTE VERDE BAJO AGRÍCOLA Y FORESTAL LAS ASTAS S.A., PLANTA HUEPIL</t>
+          <t>Piscicultura Polcura</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>145</v>
+        <v>1000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/07/2017</t>
+          <t>28/12/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132498006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modificacion en el tratamiento de la mortalidad mediante un sistema de ensilaje para piscicultura Campamento Viejo, El Peumo y Kudiñam</t>
+          <t>OPTIMIZACIÓN SISTEMA DE TRATAMIENTO DE PURINES, PLANTEL DE CERDOS MONTE VERDE BAJO AGRÍCOLA Y FORESTAL LAS ASTAS S.A., PLANTA HUEPIL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SUR INVERSIONES S.A.</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/04/2017</t>
+          <t>20/07/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132328019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132498006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>19/12/2016</t>
+          <t>21/04/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131912907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132328019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13/10/2016</t>
+          <t>19/12/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131859474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131912907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>02/09/2016</t>
+          <t>13/10/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131733752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131859474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Piscicultura Santa Teresa</t>
+          <t>Modificacion en el tratamiento de la mortalidad mediante un sistema de ensilaje para piscicultura Campamento Viejo, El Peumo y Kudiñam</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sociedad de Acuicultura Piscicultura Santa Teresa Limitada</t>
+          <t>SUR INVERSIONES S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/06/2015</t>
+          <t>02/09/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131733752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>06/05/2015</t>
+          <t>23/06/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130423407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aumento de extracción y procesamiento de áridos de pozo lastrero, Cruz de Piedra</t>
+          <t>Piscicultura Santa Teresa</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sociedad Áridos Santa Adela Ltda.</t>
+          <t>Sociedad de Acuicultura Piscicultura Santa Teresa Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1300</v>
+        <v>350</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11/02/2014</t>
+          <t>06/05/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129198984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130423407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>José Aurelio Rivera Arriagada</t>
+          <t>Sociedad Áridos Santa Adela Ltda.</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>11/02/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129198984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Extracción y Procesamiento de Áridos en Pozo Lastrero, sector Huepil .</t>
+          <t>Aumento de extracción y procesamiento de áridos de pozo lastrero, Cruz de Piedra</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sociedad Áridos y Asfaltos Servitierra Ltda.</t>
+          <t>José Aurelio Rivera Arriagada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>1300</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>02/07/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8295344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Modificación DIA Establecimiento Plantel de Cerdos Monte Verde Bajo</t>
+          <t>Ampliación Planta de Extracción y Procesamiento de Áridos en Pozo Lastrero, sector Huepil .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Sociedad Áridos y Asfaltos Servitierra Ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>28/06/2013</t>
+          <t>02/07/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8277746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8295344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ampliación Extracción Mecanizada de Áridos en Predio Santa Catalina - Sector Cruz de Piedra</t>
+          <t>Modificación DIA Establecimiento Plantel de Cerdos Monte Verde Bajo</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sociedad Aridos Cruz de Piedra Limitada</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>17/12/2012</t>
+          <t>28/06/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7644779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8277746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,30 +1528,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pequeña Central Hidroeléctrica de Pasada El Pinar</t>
+          <t>Ampliación Extracción Mecanizada de Áridos en Predio Santa Catalina - Sector Cruz de Piedra</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica El Pinar SpA</t>
+          <t>Sociedad Aridos Cruz de Piedra Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>23400</v>
+        <v>2000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>17/10/2012</t>
+          <t>17/12/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7430147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7644779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Aaktei Energía SpA</t>
+          <t>Empresa Eléctrica El Pinar SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21/09/2012</t>
+          <t>17/10/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7354919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7430147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,40 +1624,40 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 1x154 kV Molino - Tap Off Huépil</t>
+          <t>Pequeña Central Hidroeléctrica de Pasada El Pinar</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cholguán Transmisión S.A</t>
+          <t>Aaktei Energía SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>6870</v>
+        <v>23400</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>02/04/2012</t>
+          <t>21/09/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Renuncia RCA</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6753532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7354919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Línea de Transmisión 1x154 kV Molino - Tap Off Huépil</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Cholguán Transmisión S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>6870</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>02/04/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6753532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos Pozo Cruz de Piedra Para la Materialización de la Ruta Concesionada, Autopista Concepción - Cabrero Pozo Cruz de Piedra</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>11/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Regularización Incineración de la Mortalidad en Piscicultura de Valle del Laja</t>
+          <t>Extracción y Procesamiento de Áridos Pozo Cruz de Piedra Para la Materialización de la Ruta Concesionada, Autopista Concepción - Cabrero Pozo Cruz de Piedra</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Salmones Frioaysén S.A.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>19/07/2011</t>
+          <t>11/10/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827707&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Regularización Incineración de la Mortalidad en Piscicultura de Polcura IncineraPolcura</t>
+          <t>Regularización Incineración de la Mortalidad en Piscicultura de Valle del Laja</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Manuel Jesús Jara Figueroa</t>
+          <t>Salmones Frioaysén S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08/07/2011</t>
+          <t>19/07/2011</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5792941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827707&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,30 +1864,30 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pequeña Central Hidroeléctrica de Pasada Baquedano</t>
+          <t>Regularización Incineración de la Mortalidad en Piscicultura de Polcura IncineraPolcura</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Energía Baquedano Spa</t>
+          <t>Manuel Jesús Jara Figueroa</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>56300</v>
+        <v>28</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09/05/2011</t>
+          <t>08/07/2011</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5588117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5792941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Molinos de Agua Proyecto Hidroeléctrico Molinos de Agua</t>
+          <t>Pequeña Central Hidroeléctrica de Pasada Baquedano</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Molinos de Agua S.A.</t>
+          <t>Energía Baquedano Spa</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>50000</v>
+        <v>56300</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>25/03/2011</t>
+          <t>09/05/2011</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Renuncia RCA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5469296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5588117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,40 +1960,40 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Hidroeléctrico Molinos de Agua Proyecto Hidroeléctrico Molinos de Agua</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica Molinos de Agua S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>22</v>
+        <v>50000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>25/03/2011</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5469296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mejoramiento de Planta de Tratamiento de Aguas Servidas de Huepil (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>476</v>
+        <v>22</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>15/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3700824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura Valle del Laja (e-seia)</t>
+          <t>Mejoramiento de Planta de Tratamiento de Aguas Servidas de Huepil (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Salmones Frioaysén S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>600</v>
+        <v>476</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>24/06/2008</t>
+          <t>15/04/2009</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2979851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3700824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Ampliación Piscicultura Valle del Laja (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Salmones Frioaysén S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>234</v>
+        <v>600</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>24/06/2008</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2979851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura Polcura Am.Pisc-Polcura (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Manuel Jesús Jara Figueroa</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>800</v>
+        <v>234</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>03/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Piscicultura Polcura Am.Pisc-Polcura (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Manuel Jesús Jara Figueroa</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/09/2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Establecimiento Plantel de Cerdos Monte Verde Bajo (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Raúl Pérez Serani</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>30/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Raúl Pérez Serani</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2279232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Establecimiento Plantel de Cerdos Monte Verde Bajo (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>30/07/2007</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2279232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica de Pasada Trupan CentralTrupan (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Asociación de Canalistas Canal Zañartu</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>42000</v>
+        <v>300</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>27/04/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2126804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Central Hidroeléctrica de Pasada Trupan CentralTrupan (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,20 +2450,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Asociación de Canalistas Canal Zañartu</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>80</v>
+        <v>42000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>27/04/2007</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2126804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Piscicultura Cruz de Piedra (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,12 +2786,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Francisco Alfredo de la Cruz Yañez</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=254000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Piscicultura Rastrojo Alto (e-seia)</t>
+          <t>Piscicultura Cruz de Piedra (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Fernando Enrique Delgado Palomino</t>
+          <t>Francisco Alfredo de la Cruz Yañez</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>15/01/2004</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=245813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=254000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Piscicultura Altos del Laja (e-seia)</t>
+          <t>Piscicultura Rastrojo Alto (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Francisco Alfredo de la Cruz Yañez</t>
+          <t>Fernando Enrique Delgado Palomino</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>15/01/2004</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=101997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=245813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>29/04/2003</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=73913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=101997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09/01/2003</t>
+          <t>29/04/2003</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=42768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=73913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Centro Piscicultor de Ovas Alevines y Smolts de Salmónidos en la Localidad de Trupán VIII Región</t>
+          <t>Piscicultura Altos del Laja (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Evaluaciones Económicas de Proyectos de Inversión Ltda.</t>
+          <t>Francisco Alfredo de la Cruz Yañez</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>07/09/2001</t>
+          <t>09/01/2003</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=42768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cultivo de Salmónidos Sector El Peumo Localidad de Trupan Comuna de Tucapel</t>
+          <t>Centro Piscicultor de Ovas Alevines y Smolts de Salmónidos en la Localidad de Trupán VIII Región</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SUR INVERSIONES S.A.</t>
+          <t>Evaluaciones Económicas de Proyectos de Inversión Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>09/07/2001</t>
+          <t>07/09/2001</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Piscicultura Polcura</t>
+          <t>Cultivo de Salmónidos Sector El Peumo Localidad de Trupan Comuna de Tucapel</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Manuel Jesús Jara Figueroa</t>
+          <t>SUR INVERSIONES S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>24/11/2000</t>
+          <t>09/07/2001</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Petrans Localidad de Huepil Comuna de Tucapel</t>
+          <t>Piscicultura Polcura</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Richard Rodemil Rubilar Fernández</t>
+          <t>Manuel Jesús Jara Figueroa</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>13/11/2000</t>
+          <t>24/11/2000</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Instalación de un Centro de Cultivos de Salmónidos en su Fase de Agua Dulce en la Localidad de Tucapel VIII Región</t>
+          <t>Estación de Servicio YPF Petrans Localidad de Huepil Comuna de Tucapel</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Acuicultora Salmocordillera Ltda.</t>
+          <t>Richard Rodemil Rubilar Fernández</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>02/11/2000</t>
+          <t>13/11/2000</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Restaurant y Discoteca Murzy</t>
+          <t>Instalación de un Centro de Cultivos de Salmónidos en su Fase de Agua Dulce en la Localidad de Tucapel VIII Región</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Reinaldo Ruiz Martin</t>
+          <t>Acuicultora Salmocordillera Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>28/09/1999</t>
+          <t>02/11/2000</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,43 +3304,91 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>Restaurant y Discoteca Murzy</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Reinaldo Ruiz Martin</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>10</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>28/09/1999</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2338&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Tucapel</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>Planta de Tratamiento de Aguas Servidas de Huépil</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Octava</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
-      <c r="F62" t="n">
+      <c r="F63" t="n">
         <v>1160</v>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>09/04/1999</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886293&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>Tucapel</t>
         </is>

--- a/data/Tucapel.xlsx
+++ b/data/Tucapel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/10/2022</t>
+          <t>08/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Tucapel.xlsx
+++ b/data/Tucapel.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Tucapel.xlsx
+++ b/data/Tucapel.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación Extracción y Procesamiento de áridos Sector Huépil</t>
+          <t>Regularización del Embalse Las Astas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SOCIEDAD ÁRIDOS Y ASFALTOS SERVITERRA LIMITADA</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/11/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157509249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157921126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Regularización Fase de Operación Embalse Las Astas</t>
+          <t>Ampliación Extracción y Procesamiento de áridos Sector Huépil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>SOCIEDAD ÁRIDOS Y ASFALTOS SERVITERRA LIMITADA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>08/11/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155911251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157509249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ampliación Extracción y procesamiento de áridos sector Huepil</t>
+          <t>Regularización Fase de Operación Embalse Las Astas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SOCIEDAD ÁRIDOS Y ASFALTOS SERVITERRA LIMITADA</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/06/2021</t>
+          <t>18/05/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152192283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155911251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,40 +568,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Eólico Peñasco Ventoso</t>
+          <t>Ampliación Extracción y procesamiento de áridos sector Huepil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Quilleco SpA</t>
+          <t>SOCIEDAD ÁRIDOS Y ASFALTOS SERVITERRA LIMITADA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>325000</v>
+        <v>100</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>27/04/2021</t>
+          <t>22/06/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152192283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>25/03/2021</t>
+          <t>27/04/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151272544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PROYECTO REGULARIZACIÓN EMBALSE LAS ASTAS</t>
+          <t>Parque Eólico Peñasco Ventoso</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Quilleco SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>135</v>
+        <v>325000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/08/2020</t>
+          <t>25/03/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147592996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151272544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Trupán</t>
+          <t>PROYECTO REGULARIZACIÓN EMBALSE LAS ASTAS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7000</v>
+        <v>135</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>21/08/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146341507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147592996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN EMBALSE LAS ASTAS</t>
+          <t>Parque Fotovoltaico Trupán</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>135</v>
+        <v>7000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/03/2020</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145874673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146341507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>REGULARIZACIÓN EMBALSE LAS ASTAS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9903</v>
+        <v>135</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>20/03/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145874673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PISCICULTURA POLCURA</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1000</v>
+        <v>9903</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21/02/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138508288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mejoramiento del desempeño ambiental del plantel de cerdos Monte Verde, a través de la recuperación de nutrientes para el riego, y el manejo de animales muertos</t>
+          <t>PISCICULTURA POLCURA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,11 +919,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>169</v>
+        <v>1000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138519139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138508288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Piscicultura Polcura</t>
+          <t>Mejoramiento del desempeño ambiental del plantel de cerdos Monte Verde, a través de la recuperación de nutrientes para el riego, y el manejo de animales muertos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1000</v>
+        <v>169</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>28/12/2017</t>
+          <t>21/02/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138519139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN SISTEMA DE TRATAMIENTO DE PURINES, PLANTEL DE CERDOS MONTE VERDE BAJO AGRÍCOLA Y FORESTAL LAS ASTAS S.A., PLANTA HUEPIL</t>
+          <t>Piscicultura Polcura</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>145</v>
+        <v>1000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/07/2017</t>
+          <t>28/12/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132498006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificacion en el tratamiento de la mortalidad mediante un sistema de ensilaje para piscicultura Campamento Viejo, El Peumo y Kudiñam</t>
+          <t>OPTIMIZACIÓN SISTEMA DE TRATAMIENTO DE PURINES, PLANTEL DE CERDOS MONTE VERDE BAJO AGRÍCOLA Y FORESTAL LAS ASTAS S.A., PLANTA HUEPIL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SUR INVERSIONES S.A.</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/04/2017</t>
+          <t>20/07/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132328019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132498006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19/12/2016</t>
+          <t>21/04/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131912907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132328019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13/10/2016</t>
+          <t>19/12/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131859474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131912907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>02/09/2016</t>
+          <t>13/10/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131733752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131859474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Piscicultura Santa Teresa</t>
+          <t>Modificacion en el tratamiento de la mortalidad mediante un sistema de ensilaje para piscicultura Campamento Viejo, El Peumo y Kudiñam</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sociedad de Acuicultura Piscicultura Santa Teresa Limitada</t>
+          <t>SUR INVERSIONES S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/06/2015</t>
+          <t>02/09/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131733752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>06/05/2015</t>
+          <t>23/06/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130423407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Aumento de extracción y procesamiento de áridos de pozo lastrero, Cruz de Piedra</t>
+          <t>Piscicultura Santa Teresa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sociedad Áridos Santa Adela Ltda.</t>
+          <t>Sociedad de Acuicultura Piscicultura Santa Teresa Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1300</v>
+        <v>350</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>11/02/2014</t>
+          <t>06/05/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129198984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130423407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>José Aurelio Rivera Arriagada</t>
+          <t>Sociedad Áridos Santa Adela Ltda.</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>11/02/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129198984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Extracción y Procesamiento de Áridos en Pozo Lastrero, sector Huepil .</t>
+          <t>Aumento de extracción y procesamiento de áridos de pozo lastrero, Cruz de Piedra</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sociedad Áridos y Asfaltos Servitierra Ltda.</t>
+          <t>José Aurelio Rivera Arriagada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>1300</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>02/07/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8295344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Modificación DIA Establecimiento Plantel de Cerdos Monte Verde Bajo</t>
+          <t>Ampliación Planta de Extracción y Procesamiento de Áridos en Pozo Lastrero, sector Huepil .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Sociedad Áridos y Asfaltos Servitierra Ltda.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>28/06/2013</t>
+          <t>02/07/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8277746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8295344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ampliación Extracción Mecanizada de Áridos en Predio Santa Catalina - Sector Cruz de Piedra</t>
+          <t>Modificación DIA Establecimiento Plantel de Cerdos Monte Verde Bajo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sociedad Aridos Cruz de Piedra Limitada</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>17/12/2012</t>
+          <t>28/06/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7644779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8277746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,30 +1576,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pequeña Central Hidroeléctrica de Pasada El Pinar</t>
+          <t>Ampliación Extracción Mecanizada de Áridos en Predio Santa Catalina - Sector Cruz de Piedra</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica El Pinar SpA</t>
+          <t>Sociedad Aridos Cruz de Piedra Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>23400</v>
+        <v>2000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>17/10/2012</t>
+          <t>17/12/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7430147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7644779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Aaktei Energía SpA</t>
+          <t>Empresa Eléctrica El Pinar SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>21/09/2012</t>
+          <t>17/10/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7354919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7430147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,40 +1672,40 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 1x154 kV Molino - Tap Off Huépil</t>
+          <t>Pequeña Central Hidroeléctrica de Pasada El Pinar</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cholguán Transmisión S.A</t>
+          <t>Aaktei Energía SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>6870</v>
+        <v>23400</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>02/04/2012</t>
+          <t>21/09/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Renuncia RCA</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6753532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7354919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Línea de Transmisión 1x154 kV Molino - Tap Off Huépil</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Cholguán Transmisión S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>6870</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>02/04/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6753532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos Pozo Cruz de Piedra Para la Materialización de la Ruta Concesionada, Autopista Concepción - Cabrero Pozo Cruz de Piedra</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>11/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Regularización Incineración de la Mortalidad en Piscicultura de Valle del Laja</t>
+          <t>Extracción y Procesamiento de Áridos Pozo Cruz de Piedra Para la Materialización de la Ruta Concesionada, Autopista Concepción - Cabrero Pozo Cruz de Piedra</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Salmones Frioaysén S.A.</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>30</v>
+        <v>1300</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>19/07/2011</t>
+          <t>11/10/2011</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827707&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Regularización Incineración de la Mortalidad en Piscicultura de Polcura IncineraPolcura</t>
+          <t>Regularización Incineración de la Mortalidad en Piscicultura de Valle del Laja</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Manuel Jesús Jara Figueroa</t>
+          <t>Salmones Frioaysén S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08/07/2011</t>
+          <t>19/07/2011</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5792941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827707&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,30 +1912,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pequeña Central Hidroeléctrica de Pasada Baquedano</t>
+          <t>Regularización Incineración de la Mortalidad en Piscicultura de Polcura IncineraPolcura</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Energía Baquedano Spa</t>
+          <t>Manuel Jesús Jara Figueroa</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>56300</v>
+        <v>28</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09/05/2011</t>
+          <t>08/07/2011</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5588117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5792941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Molinos de Agua Proyecto Hidroeléctrico Molinos de Agua</t>
+          <t>Pequeña Central Hidroeléctrica de Pasada Baquedano</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Molinos de Agua S.A.</t>
+          <t>Energía Baquedano Spa</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>50000</v>
+        <v>56300</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>25/03/2011</t>
+          <t>09/05/2011</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Renuncia RCA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5469296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5588117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,40 +2008,40 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Hidroeléctrico Molinos de Agua Proyecto Hidroeléctrico Molinos de Agua</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Hidroeléctrica Molinos de Agua S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>22</v>
+        <v>50000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>25/03/2011</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5469296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mejoramiento de Planta de Tratamiento de Aguas Servidas de Huepil (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>476</v>
+        <v>22</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3700824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura Valle del Laja (e-seia)</t>
+          <t>Mejoramiento de Planta de Tratamiento de Aguas Servidas de Huepil (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Salmones Frioaysén S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>600</v>
+        <v>476</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>24/06/2008</t>
+          <t>15/04/2009</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2979851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3700824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Ampliación Piscicultura Valle del Laja (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Salmones Frioaysén S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>234</v>
+        <v>600</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>24/06/2008</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2979851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura Polcura Am.Pisc-Polcura (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Manuel Jesús Jara Figueroa</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>800</v>
+        <v>234</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>03/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Ampliación Piscicultura Polcura Am.Pisc-Polcura (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Manuel Jesús Jara Figueroa</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/09/2007</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Establecimiento Plantel de Cerdos Monte Verde Bajo (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Raúl Pérez Serani</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>30/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Raúl Pérez Serani</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2372,12 +2372,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2279232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Establecimiento Plantel de Cerdos Monte Verde Bajo (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>30/07/2007</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2279232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica de Pasada Trupan CentralTrupan (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Asociación de Canalistas Canal Zañartu</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>42000</v>
+        <v>300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>27/04/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2126804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Central Hidroeléctrica de Pasada Trupan CentralTrupan (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Asociación de Canalistas Canal Zañartu</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>80</v>
+        <v>42000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>27/04/2007</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2126804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Piscicultura Cruz de Piedra (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,12 +2834,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Francisco Alfredo de la Cruz Yañez</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=254000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Piscicultura Rastrojo Alto (e-seia)</t>
+          <t>Piscicultura Cruz de Piedra (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Fernando Enrique Delgado Palomino</t>
+          <t>Francisco Alfredo de la Cruz Yañez</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15/01/2004</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=245813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=254000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Piscicultura Altos del Laja (e-seia)</t>
+          <t>Piscicultura Rastrojo Alto (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Francisco Alfredo de la Cruz Yañez</t>
+          <t>Fernando Enrique Delgado Palomino</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>15/01/2004</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=101997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=245813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>29/04/2003</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=73913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=101997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09/01/2003</t>
+          <t>29/04/2003</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=42768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=73913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Centro Piscicultor de Ovas Alevines y Smolts de Salmónidos en la Localidad de Trupán VIII Región</t>
+          <t>Piscicultura Altos del Laja (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Evaluaciones Económicas de Proyectos de Inversión Ltda.</t>
+          <t>Francisco Alfredo de la Cruz Yañez</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>07/09/2001</t>
+          <t>09/01/2003</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=42768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cultivo de Salmónidos Sector El Peumo Localidad de Trupan Comuna de Tucapel</t>
+          <t>Centro Piscicultor de Ovas Alevines y Smolts de Salmónidos en la Localidad de Trupán VIII Región</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SUR INVERSIONES S.A.</t>
+          <t>Evaluaciones Económicas de Proyectos de Inversión Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09/07/2001</t>
+          <t>07/09/2001</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Piscicultura Polcura</t>
+          <t>Cultivo de Salmónidos Sector El Peumo Localidad de Trupan Comuna de Tucapel</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Manuel Jesús Jara Figueroa</t>
+          <t>SUR INVERSIONES S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>24/11/2000</t>
+          <t>09/07/2001</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Petrans Localidad de Huepil Comuna de Tucapel</t>
+          <t>Piscicultura Polcura</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Richard Rodemil Rubilar Fernández</t>
+          <t>Manuel Jesús Jara Figueroa</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>13/11/2000</t>
+          <t>24/11/2000</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Instalación de un Centro de Cultivos de Salmónidos en su Fase de Agua Dulce en la Localidad de Tucapel VIII Región</t>
+          <t>Estación de Servicio YPF Petrans Localidad de Huepil Comuna de Tucapel</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Acuicultora Salmocordillera Ltda.</t>
+          <t>Richard Rodemil Rubilar Fernández</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>02/11/2000</t>
+          <t>13/11/2000</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Restaurant y Discoteca Murzy</t>
+          <t>Instalación de un Centro de Cultivos de Salmónidos en su Fase de Agua Dulce en la Localidad de Tucapel VIII Región</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Reinaldo Ruiz Martin</t>
+          <t>Acuicultora Salmocordillera Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>28/09/1999</t>
+          <t>02/11/2000</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,43 +3352,91 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>Restaurant y Discoteca Murzy</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Reinaldo Ruiz Martin</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>10</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>28/09/1999</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2338&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Tucapel</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>Planta de Tratamiento de Aguas Servidas de Huépil</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Octava</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
-      <c r="F63" t="n">
+      <c r="F64" t="n">
         <v>1160</v>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>09/04/1999</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886293&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>Tucapel</t>
         </is>

--- a/data/Tucapel.xlsx
+++ b/data/Tucapel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/12/2022</t>
+          <t>18/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Tucapel.xlsx
+++ b/data/Tucapel.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/01/2023</t>
+          <t>18/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/data/Tucapel.xlsx
+++ b/data/Tucapel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/12/2022</t>
+          <t>22/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Tucapel.xlsx
+++ b/data/Tucapel.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Sociedad Parque Solar Trupán SpA</t>
         </is>
       </c>
       <c r="F9" t="n">

--- a/data/Tucapel.xlsx
+++ b/data/Tucapel.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Tucapel.xlsx
+++ b/data/Tucapel.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Regularización del Embalse Las Astas</t>
+          <t>Modificación PTAS Huépil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/12/2022</t>
+          <t>18/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157921126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160822703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación Extracción y Procesamiento de áridos Sector Huépil</t>
+          <t>Embalse Las Astas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SOCIEDAD ÁRIDOS Y ASFALTOS SERVITERRA LIMITADA</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>08/11/2022</t>
+          <t>18/12/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157509249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160839375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Regularización Fase de Operación Embalse Las Astas</t>
+          <t>Regularización del Embalse Las Astas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>22/12/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155911251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157921126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación Extracción y procesamiento de áridos sector Huepil</t>
+          <t>Ampliación Extracción y Procesamiento de áridos Sector Huépil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/06/2021</t>
+          <t>08/11/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152192283&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157509249&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,40 +616,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Eólico Peñasco Ventoso</t>
+          <t>Regularización Fase de Operación Embalse Las Astas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Quilleco SpA</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>325000</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>27/04/2021</t>
+          <t>18/05/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155911251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Eólico Peñasco Ventoso</t>
+          <t>Ampliación Extracción y procesamiento de áridos sector Huepil</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Quilleco SpA</t>
+          <t>SOCIEDAD ÁRIDOS Y ASFALTOS SERVITERRA LIMITADA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>325000</v>
+        <v>100</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>25/03/2021</t>
+          <t>22/06/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151272544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152192283&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,40 +712,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PROYECTO REGULARIZACIÓN EMBALSE LAS ASTAS</t>
+          <t>Parque Eólico Peñasco Ventoso</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Quilleco SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>135</v>
+        <v>325000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/08/2020</t>
+          <t>27/04/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147592996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151479402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Trupán</t>
+          <t>Parque Eólico Peñasco Ventoso</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sociedad Parque Solar Trupán SpA</t>
+          <t>Quilleco SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7000</v>
+        <v>325000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>25/03/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146341507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151272544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN EMBALSE LAS ASTAS</t>
+          <t>PROYECTO REGULARIZACIÓN EMBALSE LAS ASTAS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/03/2020</t>
+          <t>21/08/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145874673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147592996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Parque Fotovoltaico Trupán</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Sociedad Parque Solar Trupán SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9903</v>
+        <v>7000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146341507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PISCICULTURA POLCURA</t>
+          <t>REGULARIZACIÓN EMBALSE LAS ASTAS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Salmones Camanchaca S.A.</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1000</v>
+        <v>135</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21/02/2018</t>
+          <t>20/03/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138508288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145874673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mejoramiento del desempeño ambiental del plantel de cerdos Monte Verde, a través de la recuperación de nutrientes para el riego, y el manejo de animales muertos</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>169</v>
+        <v>9903</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/02/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138519139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Piscicultura Polcura</t>
+          <t>PISCICULTURA POLCURA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>28/12/2017</t>
+          <t>21/02/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138508288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN SISTEMA DE TRATAMIENTO DE PURINES, PLANTEL DE CERDOS MONTE VERDE BAJO AGRÍCOLA Y FORESTAL LAS ASTAS S.A., PLANTA HUEPIL</t>
+          <t>Mejoramiento del desempeño ambiental del plantel de cerdos Monte Verde, a través de la recuperación de nutrientes para el riego, y el manejo de animales muertos</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1067,21 +1067,21 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/07/2017</t>
+          <t>21/02/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132498006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138519139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificacion en el tratamiento de la mortalidad mediante un sistema de ensilaje para piscicultura Campamento Viejo, El Peumo y Kudiñam</t>
+          <t>Piscicultura Polcura</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SUR INVERSIONES S.A.</t>
+          <t>Salmones Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21/04/2017</t>
+          <t>28/12/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132328019&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2137984120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificacion en el tratamiento de la mortalidad mediante un sistema de ensilaje para piscicultura Campamento Viejo, El Peumo y Kudiñam</t>
+          <t>OPTIMIZACIÓN SISTEMA DE TRATAMIENTO DE PURINES, PLANTEL DE CERDOS MONTE VERDE BAJO AGRÍCOLA Y FORESTAL LAS ASTAS S.A., PLANTA HUEPIL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SUR INVERSIONES S.A.</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19/12/2016</t>
+          <t>20/07/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131912907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132498006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13/10/2016</t>
+          <t>21/04/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131859474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132328019&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>02/09/2016</t>
+          <t>19/12/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131733752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131912907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Piscicultura Santa Teresa</t>
+          <t>Modificacion en el tratamiento de la mortalidad mediante un sistema de ensilaje para piscicultura Campamento Viejo, El Peumo y Kudiñam</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sociedad de Acuicultura Piscicultura Santa Teresa Limitada</t>
+          <t>SUR INVERSIONES S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/06/2015</t>
+          <t>13/10/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131859474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Piscicultura Santa Teresa</t>
+          <t>Modificacion en el tratamiento de la mortalidad mediante un sistema de ensilaje para piscicultura Campamento Viejo, El Peumo y Kudiñam</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sociedad de Acuicultura Piscicultura Santa Teresa Limitada</t>
+          <t>SUR INVERSIONES S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>06/05/2015</t>
+          <t>02/09/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130423407&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131733752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aumento de extracción y procesamiento de áridos de pozo lastrero, Cruz de Piedra</t>
+          <t>Piscicultura Santa Teresa</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sociedad Áridos Santa Adela Ltda.</t>
+          <t>Sociedad de Acuicultura Piscicultura Santa Teresa Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1300</v>
+        <v>350</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11/02/2014</t>
+          <t>23/06/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129198984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Aumento de extracción y procesamiento de áridos de pozo lastrero, Cruz de Piedra</t>
+          <t>Piscicultura Santa Teresa</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>José Aurelio Rivera Arriagada</t>
+          <t>Sociedad de Acuicultura Piscicultura Santa Teresa Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1300</v>
+        <v>350</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>06/05/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130423407&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Extracción y Procesamiento de Áridos en Pozo Lastrero, sector Huepil .</t>
+          <t>Aumento de extracción y procesamiento de áridos de pozo lastrero, Cruz de Piedra</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sociedad Áridos y Asfaltos Servitierra Ltda.</t>
+          <t>Sociedad Áridos Santa Adela Ltda.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>1300</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>02/07/2013</t>
+          <t>11/02/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8295344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129198984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Modificación DIA Establecimiento Plantel de Cerdos Monte Verde Bajo</t>
+          <t>Aumento de extracción y procesamiento de áridos de pozo lastrero, Cruz de Piedra</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>José Aurelio Rivera Arriagada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>28/06/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8277746&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ampliación Extracción Mecanizada de Áridos en Predio Santa Catalina - Sector Cruz de Piedra</t>
+          <t>Ampliación Planta de Extracción y Procesamiento de Áridos en Pozo Lastrero, sector Huepil .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sociedad Aridos Cruz de Piedra Limitada</t>
+          <t>Sociedad Áridos y Asfaltos Servitierra Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>17/12/2012</t>
+          <t>02/07/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7644779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8295344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,40 +1624,40 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pequeña Central Hidroeléctrica de Pasada El Pinar</t>
+          <t>Modificación DIA Establecimiento Plantel de Cerdos Monte Verde Bajo</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica El Pinar SpA</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>23400</v>
+        <v>1000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>17/10/2012</t>
+          <t>28/06/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7430147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8277746&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,40 +1672,40 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pequeña Central Hidroeléctrica de Pasada El Pinar</t>
+          <t>Ampliación Extracción Mecanizada de Áridos en Predio Santa Catalina - Sector Cruz de Piedra</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Aaktei Energía SpA</t>
+          <t>Sociedad Aridos Cruz de Piedra Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>23400</v>
+        <v>2000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>21/09/2012</t>
+          <t>17/12/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7354919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7644779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,40 +1720,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 1x154 kV Molino - Tap Off Huépil</t>
+          <t>Pequeña Central Hidroeléctrica de Pasada El Pinar</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cholguán Transmisión S.A</t>
+          <t>Empresa Eléctrica El Pinar SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>6870</v>
+        <v>23400</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>02/04/2012</t>
+          <t>17/10/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Renuncia RCA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6753532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7430147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,12 +1768,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Pequeña Central Hidroeléctrica de Pasada El Pinar</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Aaktei Energía SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>100</v>
+        <v>23400</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>21/09/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7354919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos Pozo Cruz de Piedra Para la Materialización de la Ruta Concesionada, Autopista Concepción - Cabrero Pozo Cruz de Piedra</t>
+          <t>Línea de Transmisión 1x154 kV Molino - Tap Off Huépil</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sacyr Chile S.A.</t>
+          <t>Cholguán Transmisión S.A</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1300</v>
+        <v>6870</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>11/10/2011</t>
+          <t>02/04/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134049&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6753532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Regularización Incineración de la Mortalidad en Piscicultura de Valle del Laja</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Salmones Frioaysén S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>19/07/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827707&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Regularización Incineración de la Mortalidad en Piscicultura de Polcura IncineraPolcura</t>
+          <t>Extracción y Procesamiento de Áridos Pozo Cruz de Piedra Para la Materialización de la Ruta Concesionada, Autopista Concepción - Cabrero Pozo Cruz de Piedra</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Manuel Jesús Jara Figueroa</t>
+          <t>Sacyr Chile S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>28</v>
+        <v>1300</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08/07/2011</t>
+          <t>11/10/2011</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5792941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6134049&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,30 +1960,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pequeña Central Hidroeléctrica de Pasada Baquedano</t>
+          <t>Regularización Incineración de la Mortalidad en Piscicultura de Valle del Laja</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Energía Baquedano Spa</t>
+          <t>Salmones Frioaysén S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>56300</v>
+        <v>30</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09/05/2011</t>
+          <t>19/07/2011</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5588117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827707&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,40 +2008,40 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Molinos de Agua Proyecto Hidroeléctrico Molinos de Agua</t>
+          <t>Regularización Incineración de la Mortalidad en Piscicultura de Polcura IncineraPolcura</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Molinos de Agua S.A.</t>
+          <t>Manuel Jesús Jara Figueroa</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>50000</v>
+        <v>28</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>25/03/2011</t>
+          <t>08/07/2011</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Renuncia RCA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5469296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5792941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,40 +2056,40 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Pequeña Central Hidroeléctrica de Pasada Baquedano</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Energía Baquedano Spa</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>22</v>
+        <v>56300</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>09/05/2011</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5588117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,40 +2104,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mejoramiento de Planta de Tratamiento de Aguas Servidas de Huepil (e-seia)</t>
+          <t>Proyecto Hidroeléctrico Molinos de Agua Proyecto Hidroeléctrico Molinos de Agua</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Hidroeléctrica Molinos de Agua S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>476</v>
+        <v>50000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15/04/2009</t>
+          <t>25/03/2011</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3700824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5469296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura Valle del Laja (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Salmones Frioaysén S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>600</v>
+        <v>22</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>24/06/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2979851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Mejoramiento de Planta de Tratamiento de Aguas Servidas de Huepil (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>234</v>
+        <v>476</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>15/04/2009</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3700824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura Polcura Am.Pisc-Polcura (e-seia)</t>
+          <t>Ampliación Piscicultura Valle del Laja (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Manuel Jesús Jara Figueroa</t>
+          <t>Salmones Frioaysén S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>03/09/2007</t>
+          <t>24/06/2008</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362074&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2979851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Establecimiento Plantel de Cerdos Monte Verde Bajo (e-seia)</t>
+          <t>Ampliación Piscicultura Polcura Am.Pisc-Polcura (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Raúl Pérez Serani</t>
+          <t>Manuel Jesús Jara Figueroa</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>30/07/2007</t>
+          <t>03/09/2007</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2362074&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Establecimiento Plantel de Cerdos Monte Verde Bajo (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>30/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2279232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Establecimiento Plantel de Cerdos Monte Verde Bajo (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Raúl Pérez Serani</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>30/07/2007</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica de Pasada Trupan CentralTrupan (e-seia)</t>
+          <t>Establecimiento Plantel de Cerdos Monte Verde Bajo (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Asociación de Canalistas Canal Zañartu</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>42000</v>
+        <v>4000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>27/04/2007</t>
+          <t>30/07/2007</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2126804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2279232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Central Hidroeléctrica de Pasada Trupan CentralTrupan (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Asociación de Canalistas Canal Zañartu</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>200</v>
+        <v>42000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>27/04/2007</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2126804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Piscicultura Cruz de Piedra (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Francisco Alfredo de la Cruz Yañez</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=254000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Piscicultura Rastrojo Alto (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,12 +2930,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Fernando Enrique Delgado Palomino</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>15/01/2004</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=245813&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Piscicultura Altos del Laja (e-seia)</t>
+          <t>Piscicultura Cruz de Piedra (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2987,11 +2987,11 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=101997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=254000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Piscicultura Altos del Laja (e-seia)</t>
+          <t>Piscicultura Rastrojo Alto (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Francisco Alfredo de la Cruz Yañez</t>
+          <t>Fernando Enrique Delgado Palomino</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>29/04/2003</t>
+          <t>15/01/2004</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=73913&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=245813&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>09/01/2003</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=42768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=101997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Centro Piscicultor de Ovas Alevines y Smolts de Salmónidos en la Localidad de Trupán VIII Región</t>
+          <t>Piscicultura Altos del Laja (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Evaluaciones Económicas de Proyectos de Inversión Ltda.</t>
+          <t>Francisco Alfredo de la Cruz Yañez</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>07/09/2001</t>
+          <t>29/04/2003</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=73913&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cultivo de Salmónidos Sector El Peumo Localidad de Trupan Comuna de Tucapel</t>
+          <t>Piscicultura Altos del Laja (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SUR INVERSIONES S.A.</t>
+          <t>Francisco Alfredo de la Cruz Yañez</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09/07/2001</t>
+          <t>09/01/2003</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=42768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Piscicultura Polcura</t>
+          <t>Centro Piscicultor de Ovas Alevines y Smolts de Salmónidos en la Localidad de Trupán VIII Región</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Manuel Jesús Jara Figueroa</t>
+          <t>Evaluaciones Económicas de Proyectos de Inversión Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>24/11/2000</t>
+          <t>07/09/2001</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Petrans Localidad de Huepil Comuna de Tucapel</t>
+          <t>Cultivo de Salmónidos Sector El Peumo Localidad de Trupan Comuna de Tucapel</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Richard Rodemil Rubilar Fernández</t>
+          <t>SUR INVERSIONES S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>13/11/2000</t>
+          <t>09/07/2001</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Instalación de un Centro de Cultivos de Salmónidos en su Fase de Agua Dulce en la Localidad de Tucapel VIII Región</t>
+          <t>Piscicultura Polcura</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Acuicultora Salmocordillera Ltda.</t>
+          <t>Manuel Jesús Jara Figueroa</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>02/11/2000</t>
+          <t>24/11/2000</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Restaurant y Discoteca Murzy</t>
+          <t>Estación de Servicio YPF Petrans Localidad de Huepil Comuna de Tucapel</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Reinaldo Ruiz Martin</t>
+          <t>Richard Rodemil Rubilar Fernández</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>28/09/1999</t>
+          <t>13/11/2000</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2338&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,43 +3400,139 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>Instalación de un Centro de Cultivos de Salmónidos en su Fase de Agua Dulce en la Localidad de Tucapel VIII Región</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Acuicultora Salmocordillera Ltda.</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>160</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>02/11/2000</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3345&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Tucapel</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Restaurant y Discoteca Murzy</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Reinaldo Ruiz Martin</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>10</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>28/09/1999</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2338&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Tucapel</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
           <t>Planta de Tratamiento de Aguas Servidas de Huépil</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Octava</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
-      <c r="F64" t="n">
+      <c r="F66" t="n">
         <v>1160</v>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>09/04/1999</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886293&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>Tucapel</t>
         </is>

--- a/data/Tucapel.xlsx
+++ b/data/Tucapel.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/12/2023</t>
+          <t>21/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Tucapel.xlsx
+++ b/data/Tucapel.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación PTAS Huépil</t>
+          <t>Embalse Las Astas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,11 +439,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Agrícola y Forestal Las Astas S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2500</v>
+        <v>135</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160822703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160839375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Embalse Las Astas</t>
+          <t>Modificación PTAS Huépil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Agrícola y Forestal Las Astas S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>135</v>
+        <v>2500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/12/2023</t>
+          <t>21/12/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160839375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160822703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
